--- a/copa_feminina.xlsx
+++ b/copa_feminina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\copa_feminina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD8C4F-BFB6-4B34-A384-0F4A357B25A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E7A53-3D54-4AB6-B83F-B9EFE82E669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D63B6B55-7576-40D9-8427-23810F1F1E0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D63B6B55-7576-40D9-8427-23810F1F1E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE091E16-F890-4103-9E0E-51078113AFBA}">
   <dimension ref="A1:H333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E333" sqref="E333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6553,6 +6553,12 @@
       <c r="C296" t="s">
         <v>21</v>
       </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>4</v>
+      </c>
       <c r="F296" t="s">
         <v>9</v>
       </c>
@@ -6567,6 +6573,12 @@
       <c r="C297" t="s">
         <v>11</v>
       </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
       <c r="F297" t="s">
         <v>9</v>
       </c>
@@ -6661,6 +6673,12 @@
       <c r="C302" t="s">
         <v>40</v>
       </c>
+      <c r="D302">
+        <v>4</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
       <c r="F302" t="s">
         <v>14</v>
       </c>
@@ -6675,6 +6693,12 @@
       <c r="C303" t="s">
         <v>50</v>
       </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
       <c r="F303" t="s">
         <v>14</v>
       </c>
@@ -6769,6 +6793,12 @@
       <c r="C308" t="s">
         <v>19</v>
       </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>6</v>
+      </c>
       <c r="F308" t="s">
         <v>26</v>
       </c>
@@ -6783,6 +6813,12 @@
       <c r="C309" t="s">
         <v>2</v>
       </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
       <c r="F309" t="s">
         <v>26</v>
       </c>
@@ -6877,6 +6913,12 @@
       <c r="C314" t="s">
         <v>7</v>
       </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
       <c r="F314" t="s">
         <v>33</v>
       </c>
@@ -6891,6 +6933,12 @@
       <c r="C315" t="s">
         <v>32</v>
       </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>7</v>
+      </c>
       <c r="F315" t="s">
         <v>33</v>
       </c>
@@ -6985,6 +7033,12 @@
       <c r="C320" t="s">
         <v>27</v>
       </c>
+      <c r="D320">
+        <v>3</v>
+      </c>
+      <c r="E320">
+        <v>6</v>
+      </c>
       <c r="F320" t="s">
         <v>42</v>
       </c>
@@ -6999,6 +7053,12 @@
       <c r="C321" t="s">
         <v>5</v>
       </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
       <c r="F321" t="s">
         <v>42</v>
       </c>
@@ -7093,6 +7153,12 @@
       <c r="C326" t="s">
         <v>6</v>
       </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>2</v>
+      </c>
       <c r="F326" t="s">
         <v>55</v>
       </c>
@@ -7107,6 +7173,12 @@
       <c r="C327" t="s">
         <v>13</v>
       </c>
+      <c r="D327">
+        <v>3</v>
+      </c>
+      <c r="E327">
+        <v>2</v>
+      </c>
       <c r="F327" t="s">
         <v>55</v>
       </c>
@@ -7201,6 +7273,12 @@
       <c r="C332" t="s">
         <v>10</v>
       </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
       <c r="F332" t="s">
         <v>34</v>
       </c>
@@ -7214,6 +7292,12 @@
       </c>
       <c r="C333" t="s">
         <v>30</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
       </c>
       <c r="F333" t="s">
         <v>34</v>
